--- a/SCHOOL/WW/Investitionsrechnung.xlsx
+++ b/SCHOOL/WW/Investitionsrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB90E74-C679-42ED-A747-82EE3B59F097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B1D5FA-39C4-4DD6-B5F4-95931D55C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -237,8 +237,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -549,7 +548,7 @@
   <dimension ref="B1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,13 +646,13 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="1">
         <v>4000</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="1">
         <v>4000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="1">
         <v>3725</v>
       </c>
       <c r="F7" s="1"/>
@@ -662,13 +661,13 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1008500</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>1008500</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>937625</v>
       </c>
       <c r="F8" s="1"/>
@@ -687,13 +686,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="12">
-        <v>80000</v>
+        <f>(C3-C4)/C5</f>
+        <v>75000</v>
       </c>
       <c r="D10" s="12">
-        <v>80000</v>
+        <f t="shared" ref="D10:E10" si="1">(D3-D4)/D5</f>
+        <v>77500</v>
       </c>
       <c r="E10" s="12">
-        <v>80000</v>
+        <f t="shared" si="1"/>
+        <v>57000</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -706,11 +708,11 @@
         <v>37500</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" ref="D11:E11" si="1">D3/2*D6</f>
+        <f t="shared" ref="D11:E11" si="2">D3/2*D6</f>
         <v>38750</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28500</v>
       </c>
       <c r="F11" s="1"/>
@@ -735,13 +737,13 @@
         <v>14</v>
       </c>
       <c r="C13" s="12">
-        <v>4500</v>
+        <v>27000</v>
       </c>
       <c r="D13" s="12">
-        <v>4650</v>
+        <v>27900</v>
       </c>
       <c r="E13" s="12">
-        <v>3420</v>
+        <v>20520</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -764,17 +766,17 @@
       <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f>SUM(C10:C14)</f>
-        <v>203135</v>
-      </c>
-      <c r="D15" s="15">
-        <f t="shared" ref="D15:E15" si="2">SUM(D10:D14)</f>
-        <v>213175</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="2"/>
-        <v>186575</v>
+        <v>220635</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15:E15" si="3">SUM(D10:D14)</f>
+        <v>233925</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="3"/>
+        <v>180675</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -782,13 +784,13 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>501375</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>434525</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>434700</v>
       </c>
       <c r="F16" s="1"/>
@@ -797,13 +799,13 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>187280</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>187280</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>195570</v>
       </c>
       <c r="F17" s="1"/>
@@ -812,13 +814,13 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>52848</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>96888</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>95200</v>
       </c>
       <c r="F18" s="1"/>
@@ -827,16 +829,16 @@
       <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f>SUM(C16:C18)</f>
         <v>741503</v>
       </c>
-      <c r="D19" s="15">
-        <f t="shared" ref="D19:E19" si="3">SUM(D16:D18)</f>
+      <c r="D19" s="14">
+        <f t="shared" ref="D19:E19" si="4">SUM(D16:D18)</f>
         <v>718693</v>
       </c>
-      <c r="E19" s="15">
-        <f t="shared" si="3"/>
+      <c r="E19" s="14">
+        <f t="shared" si="4"/>
         <v>725470</v>
       </c>
       <c r="F19" s="1"/>
@@ -845,17 +847,17 @@
       <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <f>C15+C19</f>
-        <v>944638</v>
-      </c>
-      <c r="D20" s="15">
-        <f t="shared" ref="D20:E20" si="4">D15+D19</f>
-        <v>931868</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="4"/>
-        <v>912045</v>
+        <v>962138</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ref="D20:E20" si="5">D15+D19</f>
+        <v>952618</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" si="5"/>
+        <v>906145</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -863,16 +865,16 @@
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="1">
         <f>C7</f>
         <v>4000</v>
       </c>
-      <c r="D21" s="13">
-        <f t="shared" ref="D21:E21" si="5">D7</f>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:E21" si="6">D7</f>
         <v>4000</v>
       </c>
-      <c r="E21" s="13">
-        <f t="shared" si="5"/>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
         <v>3725</v>
       </c>
       <c r="F21" s="1"/>
@@ -881,17 +883,17 @@
       <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <f>C20/C21</f>
-        <v>236.15950000000001</v>
-      </c>
-      <c r="D22" s="15">
+        <v>240.53450000000001</v>
+      </c>
+      <c r="D22" s="14">
         <f>D20/D21</f>
-        <v>232.96700000000001</v>
-      </c>
-      <c r="E22" s="15">
+        <v>238.15450000000001</v>
+      </c>
+      <c r="E22" s="14">
         <f>E20/E21</f>
-        <v>244.84429530201342</v>
+        <v>243.26040268456376</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -908,13 +910,13 @@
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <v>1008500</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>1008500</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>937625</v>
       </c>
       <c r="F24" s="1"/>
@@ -925,15 +927,15 @@
       </c>
       <c r="C25" s="2">
         <f>C20</f>
-        <v>944638</v>
+        <v>962138</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" ref="D25:E25" si="6">D20</f>
-        <v>931868</v>
+        <f t="shared" ref="D25:E25" si="7">D20</f>
+        <v>952618</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="6"/>
-        <v>912045</v>
+        <f t="shared" si="7"/>
+        <v>906145</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -943,15 +945,15 @@
       </c>
       <c r="C26" s="4">
         <f>C24-C25</f>
-        <v>63862</v>
+        <v>46362</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ref="D26:E26" si="7">D24-D25</f>
-        <v>76632</v>
+        <f t="shared" ref="D26:E26" si="8">D24-D25</f>
+        <v>55882</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="7"/>
-        <v>25580</v>
+        <f t="shared" si="8"/>
+        <v>31480</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -964,11 +966,11 @@
         <v>4000</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ref="D27:E27" si="8">D7</f>
+        <f t="shared" ref="D27:E27" si="9">D7</f>
         <v>4000</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3725</v>
       </c>
       <c r="F27" s="1"/>
@@ -977,17 +979,17 @@
       <c r="B28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="14">
         <f>C26/C27</f>
-        <v>15.9655</v>
-      </c>
-      <c r="D28" s="15">
-        <f t="shared" ref="D28:E28" si="9">D26/D27</f>
-        <v>19.158000000000001</v>
-      </c>
-      <c r="E28" s="15">
-        <f t="shared" si="9"/>
-        <v>6.8671140939597315</v>
+        <v>11.5905</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" ref="D28:E28" si="10">D26/D27</f>
+        <v>13.970499999999999</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="10"/>
+        <v>8.4510067114093967</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1006,15 +1008,15 @@
       </c>
       <c r="C30" s="12">
         <f>C26+C11</f>
-        <v>101362</v>
+        <v>83862</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" ref="D30:E30" si="10">D26+D11</f>
-        <v>115382</v>
+        <f t="shared" ref="D30:E30" si="11">D26+D11</f>
+        <v>94632</v>
       </c>
       <c r="E30" s="12">
-        <f t="shared" si="10"/>
-        <v>54080</v>
+        <f t="shared" si="11"/>
+        <v>59980</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1027,11 +1029,11 @@
         <v>375000</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" ref="D31:E31" si="11">D3/2</f>
+        <f t="shared" ref="D31:E31" si="12">D3/2</f>
         <v>387500</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>285000</v>
       </c>
       <c r="F31" s="1"/>
@@ -1042,15 +1044,15 @@
       </c>
       <c r="C32" s="7">
         <f>C30/C31*100</f>
-        <v>27.02986666666667</v>
+        <v>22.363199999999999</v>
       </c>
       <c r="D32" s="7">
-        <f t="shared" ref="D32:E32" si="12">D30/D31*100</f>
-        <v>29.776000000000003</v>
+        <f t="shared" ref="D32:E32" si="13">D30/D31*100</f>
+        <v>24.42116129032258</v>
       </c>
       <c r="E32" s="7">
-        <f t="shared" si="12"/>
-        <v>18.97543859649123</v>
+        <f t="shared" si="13"/>
+        <v>21.04561403508772</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1072,11 +1074,11 @@
         <v>750000</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" ref="D34:E34" si="13">D3</f>
+        <f t="shared" ref="D34:E34" si="14">D3</f>
         <v>775000</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>570000</v>
       </c>
       <c r="F34" s="1"/>
@@ -1087,15 +1089,15 @@
       </c>
       <c r="C35" s="2">
         <f>C26+C10</f>
-        <v>143862</v>
+        <v>121362</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:E35" si="14">D26+D10</f>
-        <v>156632</v>
+        <f t="shared" ref="D35:E35" si="15">D26+D10</f>
+        <v>133382</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="14"/>
-        <v>105580</v>
+        <f t="shared" si="15"/>
+        <v>88480</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -1105,15 +1107,15 @@
       </c>
       <c r="C36" s="7">
         <f>C34/C35</f>
-        <v>5.2133294407140172</v>
+        <v>6.1798586048351209</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:E36" si="15">D34/D35</f>
-        <v>4.9479033658511673</v>
+        <f t="shared" ref="D36:E36" si="16">D34/D35</f>
+        <v>5.8103792115877706</v>
       </c>
       <c r="E36" s="7">
-        <f t="shared" si="15"/>
-        <v>5.3987497632127299</v>
+        <f t="shared" si="16"/>
+        <v>6.4421338155515366</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -1140,6 +1142,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005263F1AEB2127D4484E9891F11C82FC1" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b28a4c778a97047b1a08dbb34ebe5f56">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xmlns:ns3="3714fe45-5bdf-476d-a579-c1b61a02e9df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af2d1d70bdd35a58b1844a892b48a73f" ns2:_="" ns3:_="">
     <xsd:import namespace="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
@@ -1334,18 +1348,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3714fe45-5bdf-476d-a579-c1b61a02e9df" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762F9C1B-FF8B-473A-BD2E-DBE6294203AC}">
   <ds:schemaRefs>
@@ -1355,6 +1357,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DB99824-F491-49F3-9E25-1928FFA176E3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
+    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27992461-3CEB-4F4F-8370-09C19E556089}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1371,15 +1384,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DB99824-F491-49F3-9E25-1928FFA176E3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
-    <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCHOOL/WW/Investitionsrechnung.xlsx
+++ b/SCHOOL/WW/Investitionsrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B1D5FA-39C4-4DD6-B5F4-95931D55C90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E05A21-3BEC-4362-8782-3426704E8212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,16 +686,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="12">
-        <f>(C3-C4)/C5</f>
-        <v>75000</v>
+        <f>(C3+C4)/C5</f>
+        <v>112500</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" ref="D10:E10" si="1">(D3-D4)/D5</f>
-        <v>77500</v>
+        <f t="shared" ref="D10:E10" si="1">(D3+D4)/D5</f>
+        <v>116250</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="1"/>
-        <v>57000</v>
+        <v>85500</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -768,15 +768,15 @@
       </c>
       <c r="C15" s="14">
         <f>SUM(C10:C14)</f>
-        <v>220635</v>
+        <v>258135</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ref="D15:E15" si="3">SUM(D10:D14)</f>
-        <v>233925</v>
+        <v>272675</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="3"/>
-        <v>180675</v>
+        <v>209175</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -849,15 +849,15 @@
       </c>
       <c r="C20" s="14">
         <f>C15+C19</f>
-        <v>962138</v>
+        <v>999638</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" ref="D20:E20" si="5">D15+D19</f>
-        <v>952618</v>
+        <v>991368</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="5"/>
-        <v>906145</v>
+        <v>934645</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -885,15 +885,15 @@
       </c>
       <c r="C22" s="14">
         <f>C20/C21</f>
-        <v>240.53450000000001</v>
+        <v>249.90950000000001</v>
       </c>
       <c r="D22" s="14">
         <f>D20/D21</f>
-        <v>238.15450000000001</v>
+        <v>247.84200000000001</v>
       </c>
       <c r="E22" s="14">
         <f>E20/E21</f>
-        <v>243.26040268456376</v>
+        <v>250.91140939597315</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -927,15 +927,15 @@
       </c>
       <c r="C25" s="2">
         <f>C20</f>
-        <v>962138</v>
+        <v>999638</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" ref="D25:E25" si="7">D20</f>
-        <v>952618</v>
+        <v>991368</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="7"/>
-        <v>906145</v>
+        <v>934645</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -945,15 +945,15 @@
       </c>
       <c r="C26" s="4">
         <f>C24-C25</f>
-        <v>46362</v>
+        <v>8862</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ref="D26:E26" si="8">D24-D25</f>
-        <v>55882</v>
+        <v>17132</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="8"/>
-        <v>31480</v>
+        <v>2980</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -981,15 +981,15 @@
       </c>
       <c r="C28" s="14">
         <f>C26/C27</f>
-        <v>11.5905</v>
+        <v>2.2155</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" ref="D28:E28" si="10">D26/D27</f>
-        <v>13.970499999999999</v>
+        <v>4.2830000000000004</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" si="10"/>
-        <v>8.4510067114093967</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1008,15 +1008,15 @@
       </c>
       <c r="C30" s="12">
         <f>C26+C11</f>
-        <v>83862</v>
+        <v>46362</v>
       </c>
       <c r="D30" s="12">
         <f t="shared" ref="D30:E30" si="11">D26+D11</f>
-        <v>94632</v>
+        <v>55882</v>
       </c>
       <c r="E30" s="12">
         <f t="shared" si="11"/>
-        <v>59980</v>
+        <v>31480</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1044,15 +1044,15 @@
       </c>
       <c r="C32" s="7">
         <f>C30/C31*100</f>
-        <v>22.363199999999999</v>
+        <v>12.363200000000001</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" ref="D32:E32" si="13">D30/D31*100</f>
-        <v>24.42116129032258</v>
+        <v>14.421161290322582</v>
       </c>
       <c r="E32" s="7">
         <f t="shared" si="13"/>
-        <v>21.04561403508772</v>
+        <v>11.04561403508772</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -1133,15 +1133,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde">
@@ -1151,6 +1142,15 @@
     <_Flow_SignoffStatus xmlns="b76a368f-2fb2-43e9-b9b8-1751c406dbde" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,20 +1349,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762F9C1B-FF8B-473A-BD2E-DBE6294203AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DB99824-F491-49F3-9E25-1928FFA176E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="b76a368f-2fb2-43e9-b9b8-1751c406dbde"/>
     <ds:schemaRef ds:uri="3714fe45-5bdf-476d-a579-c1b61a02e9df"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{762F9C1B-FF8B-473A-BD2E-DBE6294203AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SCHOOL/WW/Investitionsrechnung.xlsx
+++ b/SCHOOL/WW/Investitionsrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E05A21-3BEC-4362-8782-3426704E8212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA6D57F-94C8-44E7-97BD-D77FEC7B04B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +191,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,18 +234,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -547,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,23 +564,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -583,13 +589,13 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>750000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>775000</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>570000</v>
       </c>
       <c r="F3" s="1"/>
@@ -661,39 +667,39 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>1008500</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>1008500</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>937625</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f>(C3+C4)/C5</f>
         <v>112500</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <f t="shared" ref="D10:E10" si="1">(D3+D4)/D5</f>
         <v>116250</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>85500</v>
       </c>
@@ -703,15 +709,15 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <f>C3/2*C6</f>
         <v>37500</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <f t="shared" ref="D11:E11" si="2">D3/2*D6</f>
         <v>38750</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <f t="shared" si="2"/>
         <v>28500</v>
       </c>
@@ -721,13 +727,13 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>45360</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>54000</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>38880</v>
       </c>
       <c r="F12" s="1"/>
@@ -736,13 +742,13 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>27000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>27900</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>20520</v>
       </c>
       <c r="F13" s="1"/>
@@ -751,30 +757,30 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>35775</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="9">
         <v>35775</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>35775</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <f>SUM(C10:C14)</f>
         <v>258135</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <f t="shared" ref="D15:E15" si="3">SUM(D10:D14)</f>
         <v>272675</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <f t="shared" si="3"/>
         <v>209175</v>
       </c>
@@ -784,13 +790,13 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>501375</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>434525</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>434700</v>
       </c>
       <c r="F16" s="1"/>
@@ -799,13 +805,13 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>187280</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>187280</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>195570</v>
       </c>
       <c r="F17" s="1"/>
@@ -814,48 +820,48 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="10">
         <v>52848</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>96888</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>95200</v>
       </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <f>SUM(C16:C18)</f>
         <v>741503</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <f t="shared" ref="D19:E19" si="4">SUM(D16:D18)</f>
         <v>718693</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <f t="shared" si="4"/>
         <v>725470</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <f>C15+C19</f>
         <v>999638</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <f t="shared" ref="D20:E20" si="5">D15+D19</f>
         <v>991368</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f t="shared" si="5"/>
         <v>934645</v>
       </c>
@@ -880,43 +886,43 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <f>C20/C21</f>
         <v>249.90950000000001</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <f>D20/D21</f>
         <v>247.84200000000001</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <f>E20/E21</f>
         <v>250.91140939597315</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="10">
         <v>1008500</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>1008500</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>937625</v>
       </c>
       <c r="F24" s="1"/>
@@ -940,18 +946,18 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="14">
         <f>C24-C25</f>
         <v>8862</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="14">
         <f t="shared" ref="D26:E26" si="8">D24-D25</f>
         <v>17132</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="14">
         <f t="shared" si="8"/>
         <v>2980</v>
       </c>
@@ -961,60 +967,60 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <f>C7</f>
         <v>4000</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:E27" si="9">D7</f>
         <v>4000</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="9"/>
         <v>3725</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <f>C26/C27</f>
         <v>2.2155</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <f t="shared" ref="D28:E28" si="10">D26/D27</f>
         <v>4.2830000000000004</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="9">
         <f>C26+C11</f>
         <v>46362</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="9">
         <f t="shared" ref="D30:E30" si="11">D26+D11</f>
         <v>55882</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="9">
         <f t="shared" si="11"/>
         <v>31480</v>
       </c>
@@ -1024,45 +1030,45 @@
       <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <f>C3/2</f>
         <v>375000</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <f t="shared" ref="D31:E31" si="12">D3/2</f>
         <v>387500</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <f t="shared" si="12"/>
         <v>285000</v>
       </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="15">
         <f>C30/C31*100</f>
         <v>12.363200000000001</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="15">
         <f t="shared" ref="D32:E32" si="13">D30/D31*100</f>
         <v>14.421161290322582</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="15">
         <f t="shared" si="13"/>
         <v>11.04561403508772</v>
       </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
@@ -1102,18 +1108,18 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="15">
         <f>C34/C35</f>
         <v>6.1798586048351209</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="15">
         <f t="shared" ref="D36:E36" si="16">D34/D35</f>
         <v>5.8103792115877706</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="15">
         <f t="shared" si="16"/>
         <v>6.4421338155515366</v>
       </c>

--- a/SCHOOL/WW/Investitionsrechnung.xlsx
+++ b/SCHOOL/WW/Investitionsrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CIT-23\SCHOOL\WW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA6D57F-94C8-44E7-97BD-D77FEC7B04B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD609ED-73FC-475E-B474-4E93EA9346F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +200,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -224,28 +230,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -551,586 +726,1641 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F37"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="41.33203125" customWidth="1"/>
-    <col min="3" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="2" max="2" width="2.88671875" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
+    <col min="4" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
+      <c r="D5" s="8">
         <v>750000</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E5" s="8">
         <v>775000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F5" s="8">
         <v>570000</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <f>C3*0.2</f>
+      <c r="D6" s="2">
+        <f>D5*0.2</f>
         <v>150000</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:E4" si="0">D3*0.2</f>
+      <c r="E6" s="2">
+        <f t="shared" ref="E6:F6" si="0">E5*0.2</f>
         <v>155000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>114000</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D7" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F7" s="1">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D8" s="3">
         <v>0.1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E8" s="3">
         <v>0.1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F8" s="3">
         <v>0.1</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D9" s="1">
         <v>4000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E9" s="1">
         <v>4000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F9" s="1">
         <v>3725</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="D10" s="9">
         <v>1008500</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E10" s="9">
         <v>1008500</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F10" s="9">
         <v>937625</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="9">
-        <f>(C3+C4)/C5</f>
+      <c r="D12" s="8">
+        <f>(D5+D6)/D7</f>
         <v>112500</v>
       </c>
-      <c r="D10" s="9">
-        <f t="shared" ref="D10:E10" si="1">(D3+D4)/D5</f>
+      <c r="E12" s="8">
+        <f t="shared" ref="E12:F12" si="1">(E5+E6)/E7</f>
         <v>116250</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>85500</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9">
-        <f>C3/2*C6</f>
+      <c r="D13" s="8">
+        <f>D5/2*D8</f>
         <v>37500</v>
       </c>
-      <c r="D11" s="9">
-        <f t="shared" ref="D11:E11" si="2">D3/2*D6</f>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:F13" si="2">E5/2*E8</f>
         <v>38750</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F13" s="8">
         <f t="shared" si="2"/>
         <v>28500</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9">
+      <c r="D14" s="8">
         <v>45360</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E14" s="8">
         <v>54000</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F14" s="8">
         <v>38880</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
+      <c r="D15" s="8">
         <v>27000</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E15" s="8">
         <v>27900</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F15" s="8">
         <v>20520</v>
       </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D16" s="8">
         <v>35775</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E16" s="8">
         <v>35775</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F16" s="8">
         <v>35775</v>
       </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="13">
-        <f>SUM(C10:C14)</f>
+      <c r="D17" s="11">
+        <f>SUM(D12:D16)</f>
         <v>258135</v>
       </c>
-      <c r="D15" s="13">
-        <f t="shared" ref="D15:E15" si="3">SUM(D10:D14)</f>
+      <c r="E17" s="11">
+        <f t="shared" ref="E17:F17" si="3">SUM(E12:E16)</f>
         <v>272675</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F17" s="11">
         <f t="shared" si="3"/>
         <v>209175</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="11">
+      <c r="D18" s="10">
         <v>501375</v>
       </c>
-      <c r="D16" s="11">
+      <c r="E18" s="10">
         <v>434525</v>
       </c>
-      <c r="E16" s="11">
+      <c r="F18" s="10">
         <v>434700</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="11">
+      <c r="D19" s="10">
         <v>187280</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E19" s="10">
         <v>187280</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F19" s="10">
         <v>195570</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="10">
+      <c r="D20" s="9">
         <v>52848</v>
       </c>
-      <c r="D18" s="10">
+      <c r="E20" s="9">
         <v>96888</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F20" s="9">
         <v>95200</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13">
-        <f>SUM(C16:C18)</f>
+      <c r="D21" s="11">
+        <f>SUM(D18:D20)</f>
         <v>741503</v>
       </c>
-      <c r="D19" s="13">
-        <f t="shared" ref="D19:E19" si="4">SUM(D16:D18)</f>
+      <c r="E21" s="11">
+        <f t="shared" ref="E21:F21" si="4">SUM(E18:E20)</f>
         <v>718693</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F21" s="11">
         <f t="shared" si="4"/>
         <v>725470</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="12" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13">
-        <f>C15+C19</f>
+      <c r="D22" s="11">
+        <f>D17+D21</f>
         <v>999638</v>
       </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20:E20" si="5">D15+D19</f>
+      <c r="E22" s="11">
+        <f t="shared" ref="E22:F22" si="5">E17+E21</f>
         <v>991368</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F22" s="11">
         <f t="shared" si="5"/>
         <v>934645</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
-        <f>C7</f>
+      <c r="D23" s="1">
+        <f>D9</f>
         <v>4000</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" ref="D21:E21" si="6">D7</f>
+      <c r="E23" s="1">
+        <f t="shared" ref="E23:F23" si="6">E9</f>
         <v>4000</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="6"/>
         <v>3725</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="12" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="13">
-        <f>C20/C21</f>
+      <c r="D24" s="11">
+        <f>D22/D23</f>
         <v>249.90950000000001</v>
       </c>
-      <c r="D22" s="13">
-        <f>D20/D21</f>
+      <c r="E24" s="11">
+        <f>E22/E23</f>
         <v>247.84200000000001</v>
       </c>
-      <c r="E22" s="13">
-        <f>E20/E21</f>
+      <c r="F24" s="11">
+        <f>F22/F23</f>
         <v>250.91140939597315</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="10">
+      <c r="D26" s="9">
         <v>1008500</v>
       </c>
-      <c r="D24" s="10">
+      <c r="E26" s="9">
         <v>1008500</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F26" s="9">
         <v>937625</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2">
-        <f>C20</f>
+      <c r="D27" s="2">
+        <f>D22</f>
         <v>999638</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25:E25" si="7">D20</f>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:F27" si="7">E22</f>
         <v>991368</v>
       </c>
-      <c r="E25" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="7"/>
         <v>934645</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="12" t="s">
+      <c r="G27" s="15"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="14">
-        <f>C24-C25</f>
+      <c r="D28" s="12">
+        <f>D26-D27</f>
         <v>8862</v>
       </c>
-      <c r="D26" s="14">
-        <f t="shared" ref="D26:E26" si="8">D24-D25</f>
+      <c r="E28" s="12">
+        <f t="shared" ref="E28:F28" si="8">E26-E27</f>
         <v>17132</v>
       </c>
-      <c r="E26" s="14">
+      <c r="F28" s="12">
         <f t="shared" si="8"/>
         <v>2980</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4">
-        <f>C7</f>
+      <c r="D29" s="4">
+        <f>D9</f>
         <v>4000</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" ref="D27:E27" si="9">D7</f>
+      <c r="E29" s="4">
+        <f t="shared" ref="E29:F29" si="9">E9</f>
         <v>4000</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="9"/>
         <v>3725</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="s">
+      <c r="G29" s="15"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="13">
-        <f>C26/C27</f>
+      <c r="D30" s="11">
+        <f>D28/D29</f>
         <v>2.2155</v>
       </c>
-      <c r="D28" s="13">
-        <f t="shared" ref="D28:E28" si="10">D26/D27</f>
+      <c r="E30" s="11">
+        <f t="shared" ref="E30:F30" si="10">E28/E29</f>
         <v>4.2830000000000004</v>
       </c>
-      <c r="E28" s="13">
+      <c r="F30" s="11">
         <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+      <c r="G30" s="15"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="9">
-        <f>C26+C11</f>
+      <c r="D32" s="8">
+        <f>D28+D13</f>
         <v>46362</v>
       </c>
-      <c r="D30" s="9">
-        <f t="shared" ref="D30:E30" si="11">D26+D11</f>
+      <c r="E32" s="8">
+        <f t="shared" ref="E32:F32" si="11">E28+E13</f>
         <v>55882</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F32" s="8">
         <f t="shared" si="11"/>
         <v>31480</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
+      <c r="G32" s="15"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="9">
-        <f>C3/2</f>
+      <c r="D33" s="8">
+        <f>D5/2</f>
         <v>375000</v>
       </c>
-      <c r="D31" s="9">
-        <f t="shared" ref="D31:E31" si="12">D3/2</f>
+      <c r="E33" s="8">
+        <f t="shared" ref="E33:F33" si="12">E5/2</f>
         <v>387500</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F33" s="8">
         <f t="shared" si="12"/>
         <v>285000</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+      <c r="G33" s="15"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="15">
-        <f>C30/C31*100</f>
+      <c r="D34" s="13">
+        <f>D32/D33*100</f>
         <v>12.363200000000001</v>
       </c>
-      <c r="D32" s="15">
-        <f t="shared" ref="D32:E32" si="13">D30/D31*100</f>
+      <c r="E34" s="13">
+        <f t="shared" ref="E34:F34" si="13">E32/E33*100</f>
         <v>14.421161290322582</v>
       </c>
-      <c r="E32" s="15">
+      <c r="F34" s="13">
         <f t="shared" si="13"/>
         <v>11.04561403508772</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="7" t="s">
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="2">
-        <f>C3</f>
+      <c r="D36" s="2">
+        <f>D5</f>
         <v>750000</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" ref="D34:E34" si="14">D3</f>
+      <c r="E36" s="2">
+        <f t="shared" ref="E36:F36" si="14">E5</f>
         <v>775000</v>
       </c>
-      <c r="E34" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="14"/>
         <v>570000</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
+      <c r="G36" s="15"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2">
-        <f>C26+C10</f>
+      <c r="D37" s="2">
+        <f>D28+D12</f>
         <v>121362</v>
       </c>
-      <c r="D35" s="2">
-        <f t="shared" ref="D35:E35" si="15">D26+D10</f>
+      <c r="E37" s="2">
+        <f t="shared" ref="E37:F37" si="15">E28+E12</f>
         <v>133382</v>
       </c>
-      <c r="E35" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="15"/>
         <v>88480</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
+      <c r="G37" s="15"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="15">
-        <f>C34/C35</f>
+      <c r="D38" s="13">
+        <f>D36/D37</f>
         <v>6.1798586048351209</v>
       </c>
-      <c r="D36" s="15">
-        <f t="shared" ref="D36:E36" si="16">D34/D35</f>
+      <c r="E38" s="13">
+        <f t="shared" ref="E38:F38" si="16">E36/E37</f>
         <v>5.8103792115877706</v>
       </c>
-      <c r="E36" s="15">
+      <c r="F38" s="13">
         <f t="shared" si="16"/>
         <v>6.4421338155515366</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
